--- a/example_data/EMA/label_corrected/cancidas-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cancidas-epar-product-information_en.xlsx
@@ -971,7 +971,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>populations - neonate || populations - pediatric</t>
+          <t>populations - pediatric || populations - neonate</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || hepatic</t>
+          <t>hepatic || populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>populations - paediatric|| populations - adult || hepatic || warnings</t>
+          <t>hepatic || populations - pediatric || populations - adult || warnings</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - adult || hepatic || warnings</t>
+          <t>hepatic || populations - adolescent || populations - adult || warnings</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric || renal || hepatic</t>
+          <t>populations - geriatric || populations - adult || renal || hepatic</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric || hepatic</t>
+          <t>hepatic || populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
